--- a/backend/folder/schools.xlsx
+++ b/backend/folder/schools.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -17,6 +17,32 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+  <si>
+    <t xml:space="preserve">Наименование МО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Наименование школы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГО «г. Якутск»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МОБУ СОШ N1 г. Якутска</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МОБУ ФТЛ им. В.П. Ларионова</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Амгинский улус</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Амгинская СОШ N2 </t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -216,36 +242,48 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.95"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="n">
-        <v>123</v>
-      </c>
-      <c r="B1" s="0" t="n">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>456</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>1</v>
+      <c r="A2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>789</v>
-      </c>
-      <c r="B3" s="0" t="n">
+      <c r="A3" s="0" t="s">
         <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
